--- a/StructureDefinition-booking-deep-link.xlsx
+++ b/StructureDefinition-booking-deep-link.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-21T08:56:44+00:00</t>
+    <t>2026-02-23T16:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-booking-deep-link.xlsx
+++ b/StructureDefinition-booking-deep-link.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-23T16:41:40+00:00</t>
+    <t>2026-02-23T18:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
